--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>49.7904846230126</v>
+        <v>0.2821546666666667</v>
       </c>
       <c r="H2">
-        <v>49.7904846230126</v>
+        <v>0.846464</v>
       </c>
       <c r="I2">
-        <v>0.6201268107938066</v>
+        <v>0.003251136722938652</v>
       </c>
       <c r="J2">
-        <v>0.6201268107938066</v>
+        <v>0.003251136722938651</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0646303166751848</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N2">
-        <v>0.0646303166751848</v>
+        <v>0.362231</v>
       </c>
       <c r="O2">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P2">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q2">
-        <v>3.217974788596224</v>
+        <v>0.03406838902044444</v>
       </c>
       <c r="R2">
-        <v>3.217974788596224</v>
+        <v>0.306615501184</v>
       </c>
       <c r="S2">
-        <v>0.0003795234812840994</v>
+        <v>3.53836703271816E-06</v>
       </c>
       <c r="T2">
-        <v>0.0003795234812840994</v>
+        <v>3.53836703271816E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>49.7904846230126</v>
+        <v>0.2821546666666667</v>
       </c>
       <c r="H3">
-        <v>49.7904846230126</v>
+        <v>0.846464</v>
       </c>
       <c r="I3">
-        <v>0.6201268107938066</v>
+        <v>0.003251136722938652</v>
       </c>
       <c r="J3">
-        <v>0.6201268107938066</v>
+        <v>0.003251136722938651</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.5918509058762</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N3">
-        <v>47.5918509058762</v>
+        <v>146.580945</v>
       </c>
       <c r="O3">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P3">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q3">
-        <v>2369.621320709737</v>
+        <v>13.78616589205333</v>
       </c>
       <c r="R3">
-        <v>2369.621320709737</v>
+        <v>124.07549302848</v>
       </c>
       <c r="S3">
-        <v>0.2794698504624077</v>
+        <v>0.001431840961741745</v>
       </c>
       <c r="T3">
-        <v>0.2794698504624077</v>
+        <v>0.001431840961741744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>49.7904846230126</v>
+        <v>0.2821546666666667</v>
       </c>
       <c r="H4">
-        <v>49.7904846230126</v>
+        <v>0.846464</v>
       </c>
       <c r="I4">
-        <v>0.6201268107938066</v>
+        <v>0.003251136722938652</v>
       </c>
       <c r="J4">
-        <v>0.6201268107938066</v>
+        <v>0.003251136722938651</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.946977158392</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N4">
-        <v>57.946977158392</v>
+        <v>185.724758</v>
       </c>
       <c r="O4">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P4">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q4">
-        <v>2885.20807515498</v>
+        <v>17.46770239507911</v>
       </c>
       <c r="R4">
-        <v>2885.20807515498</v>
+        <v>157.209321555712</v>
       </c>
       <c r="S4">
-        <v>0.3402774368501148</v>
+        <v>0.001814207952568274</v>
       </c>
       <c r="T4">
-        <v>0.3402774368501148</v>
+        <v>0.001814207952568274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>30.500326476216</v>
+        <v>0.2821546666666667</v>
       </c>
       <c r="H5">
-        <v>30.500326476216</v>
+        <v>0.846464</v>
       </c>
       <c r="I5">
-        <v>0.3798731892061934</v>
+        <v>0.003251136722938652</v>
       </c>
       <c r="J5">
-        <v>0.3798731892061934</v>
+        <v>0.003251136722938651</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.0646303166751848</v>
+        <v>0.05287333333333333</v>
       </c>
       <c r="N5">
-        <v>0.0646303166751848</v>
+        <v>0.15862</v>
       </c>
       <c r="O5">
-        <v>0.0006120094707698289</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="P5">
-        <v>0.0006120094707698289</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="Q5">
-        <v>1.971245758854363</v>
+        <v>0.01491845774222222</v>
       </c>
       <c r="R5">
-        <v>1.971245758854363</v>
+        <v>0.13426611968</v>
       </c>
       <c r="S5">
-        <v>0.0002324859894857295</v>
+        <v>1.549441595914636E-06</v>
       </c>
       <c r="T5">
-        <v>0.0002324859894857295</v>
+        <v>1.549441595914636E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.500326476216</v>
+        <v>55.96940366666666</v>
       </c>
       <c r="H6">
-        <v>30.500326476216</v>
+        <v>167.908211</v>
       </c>
       <c r="I6">
-        <v>0.3798731892061934</v>
+        <v>0.6449093533393406</v>
       </c>
       <c r="J6">
-        <v>0.3798731892061934</v>
+        <v>0.6449093533393405</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.5918509058762</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N6">
-        <v>47.5918509058762</v>
+        <v>0.362231</v>
       </c>
       <c r="O6">
-        <v>0.4506656470870311</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P6">
-        <v>0.4506656470870311</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q6">
-        <v>1451.56699023662</v>
+        <v>6.75795101986011</v>
       </c>
       <c r="R6">
-        <v>1451.56699023662</v>
+        <v>60.82155917874099</v>
       </c>
       <c r="S6">
-        <v>0.1711957966246233</v>
+        <v>0.0007018855832322281</v>
       </c>
       <c r="T6">
-        <v>0.1711957966246233</v>
+        <v>0.000701885583232228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.500326476216</v>
+        <v>55.96940366666666</v>
       </c>
       <c r="H7">
-        <v>30.500326476216</v>
+        <v>167.908211</v>
       </c>
       <c r="I7">
-        <v>0.3798731892061934</v>
+        <v>0.6449093533393406</v>
       </c>
       <c r="J7">
-        <v>0.3798731892061934</v>
+        <v>0.6449093533393405</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.946977158392</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N7">
-        <v>57.946977158392</v>
+        <v>146.580945</v>
       </c>
       <c r="O7">
-        <v>0.5487223434421992</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P7">
-        <v>0.5487223434421992</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q7">
-        <v>1767.401721640787</v>
+        <v>2734.682693515488</v>
       </c>
       <c r="R7">
-        <v>1767.401721640787</v>
+        <v>24612.14424163939</v>
       </c>
       <c r="S7">
-        <v>0.2084449065920844</v>
+        <v>0.2840260830024381</v>
       </c>
       <c r="T7">
-        <v>0.2084449065920844</v>
+        <v>0.284026083002438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>55.96940366666666</v>
+      </c>
+      <c r="H8">
+        <v>167.908211</v>
+      </c>
+      <c r="I8">
+        <v>0.6449093533393406</v>
+      </c>
+      <c r="J8">
+        <v>0.6449093533393405</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>61.90825266666667</v>
+      </c>
+      <c r="N8">
+        <v>185.724758</v>
+      </c>
+      <c r="O8">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="P8">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="Q8">
+        <v>3464.96798379866</v>
+      </c>
+      <c r="R8">
+        <v>31184.71185418794</v>
+      </c>
+      <c r="S8">
+        <v>0.3598740309070578</v>
+      </c>
+      <c r="T8">
+        <v>0.3598740309070577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>55.96940366666666</v>
+      </c>
+      <c r="H9">
+        <v>167.908211</v>
+      </c>
+      <c r="I9">
+        <v>0.6449093533393406</v>
+      </c>
+      <c r="J9">
+        <v>0.6449093533393405</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.15862</v>
+      </c>
+      <c r="O9">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P9">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q9">
+        <v>2.959288936535556</v>
+      </c>
+      <c r="R9">
+        <v>26.63360042882</v>
+      </c>
+      <c r="S9">
+        <v>0.0003073538466125098</v>
+      </c>
+      <c r="T9">
+        <v>0.0003073538466125098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>30.53490766666667</v>
+      </c>
+      <c r="H10">
+        <v>91.60472300000001</v>
+      </c>
+      <c r="I10">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="J10">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1207436666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.362231</v>
+      </c>
+      <c r="O10">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="P10">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="Q10">
+        <v>3.686896713001444</v>
+      </c>
+      <c r="R10">
+        <v>33.182070417013</v>
+      </c>
+      <c r="S10">
+        <v>0.0003829237060341361</v>
+      </c>
+      <c r="T10">
+        <v>0.0003829237060341361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>30.53490766666667</v>
+      </c>
+      <c r="H11">
+        <v>91.60472300000001</v>
+      </c>
+      <c r="I11">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="J11">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>48.86031499999999</v>
+      </c>
+      <c r="N11">
+        <v>146.580945</v>
+      </c>
+      <c r="O11">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="P11">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="Q11">
+        <v>1491.945207089248</v>
+      </c>
+      <c r="R11">
+        <v>13427.50686380324</v>
+      </c>
+      <c r="S11">
+        <v>0.154954486759515</v>
+      </c>
+      <c r="T11">
+        <v>0.154954486759515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>30.53490766666667</v>
+      </c>
+      <c r="H12">
+        <v>91.60472300000001</v>
+      </c>
+      <c r="I12">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="J12">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>61.90825266666667</v>
+      </c>
+      <c r="N12">
+        <v>185.724758</v>
+      </c>
+      <c r="O12">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="P12">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="Q12">
+        <v>1890.362778981337</v>
+      </c>
+      <c r="R12">
+        <v>17013.26501083204</v>
+      </c>
+      <c r="S12">
+        <v>0.1963344181907487</v>
+      </c>
+      <c r="T12">
+        <v>0.1963344181907486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>30.53490766666667</v>
+      </c>
+      <c r="H13">
+        <v>91.60472300000001</v>
+      </c>
+      <c r="I13">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="J13">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.15862</v>
+      </c>
+      <c r="O13">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P13">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q13">
+        <v>1.614482351362222</v>
+      </c>
+      <c r="R13">
+        <v>14.53034116226</v>
+      </c>
+      <c r="S13">
+        <v>0.0001676812814229999</v>
+      </c>
+      <c r="T13">
+        <v>0.0001676812814229999</v>
       </c>
     </row>
   </sheetData>
